--- a/project/evaluation/qualitative_evaluation_table.xlsx
+++ b/project/evaluation/qualitative_evaluation_table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteom/shared-folder/nlpt_group/project/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23E4E89-6280-3E45-B7F8-DB418F4BC342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A4EA54-8FC0-AD4B-B6BF-13817DE1BFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5940" windowWidth="38400" windowHeight="21600" xr2:uid="{BFF5F178-14AB-6B4F-B81C-3E61E0B93405}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{BFF5F178-14AB-6B4F-B81C-3E61E0B93405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>Comparison queries:</t>
   </si>
@@ -159,6 +160,126 @@
   </si>
   <si>
     <t>h) gte</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>model 2</t>
+  </si>
+  <si>
+    <t>model 3</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score </t>
+  </si>
+  <si>
+    <t>Bipolar disorder BD over the long term can manifest a variety of outcomes depending on a number of different conditions There is a need for further knowledge regarding preventive factors as well as predictors of the disabling course of the disorder Studies regarding the impact on functional outcome of premorbid and current general intellectual function intelligence quotient IQ and premorbid functioning in BD patients are sparse The present study addressed the role of premorbid functioning assessed with the Premorbid Adjustment Scale PAS intelligence course of illness and sociodemographics on occupational outcome in BD Bipolar disorder patients were recruited consecutively from psychiatric units outpatient and inpatient in four major hospitals in Oslo Norway N 226 644 bipolar I disorder BDI 301 bipolar II disorder BDII 55 bipolar disorder not otherwise specified BDNOS 386 males The associations between current IQ premorbid IQ assessed using the National Adult Reading Test NART PAS clinical and sociodemographic characteristics and receipt of disability benefit were analysed using descriptive statistics and logistic regression analyses The number of hospitalizations for depressive episodes and illness duration was associated with a higher risk of receipt of disability benefit PAS premorbid and current IQ as well as decline in IQ did not explain the higher risk of receipt of disability benefits Severe clinical course of BD was associated with receipt of disability benefit Occupational outcome was unrelated to PAS premorbid and current IQ as well as decline in IQ This suggests that the persistence of severe clinical symptoms rather than global cognitive functioning determines occupational outcome in BD and emphasizes the protective potential of early and continuous clinical treatment</t>
+  </si>
+  <si>
+    <t>Bipolar disorder is a severe psychiatric syndrome defined by periodic mood shifts Patients with bipolar disorder show cognitive impairments relative to healthy controls The risk of developing schizophrenia and partially also bipolar disorder has previously been shown to increase with lower premorbid intelligence It is not known if premorbid intelligence is associated with level of functioning and illness severity of people having developed bipolar disorder We used multiple linear and ordinal regression to analyze how premorbid intelligence as measured at conscription associate with functional outcome and illness severity in Swedish male bipolar disorder patients n 788 We found that lower premorbid intelligence is associated with lower percentage of time in work after adjusting for age and bipolar subtype and correcting for multiple comparisons We also found a strong negative association with the total number of inpatient episodes and psychiatric comorbidity but not with interepisodic remission treatment with psychotherapy or lithium or the presence of any complicating socioeconomical factors Adjusting for confounding genetic factors using polygenic risk scores for bipolar disorder and schizophrenia had no effect on the associations This study lacks females and controls and may thus have lower generalizability In conclusion premorbid intelligence is associated with both level of functioning and illness severity as well as comorbidity in bipolar disorder patients Further research is needed to develop targeted interventions for this subgroup of bipolar disorder patients</t>
+  </si>
+  <si>
+    <t>The aim of this study was to assess if premorbid IQ moderates the association between measures of clinical severity and neurocognitive or psychosocial functioning in euthymic patients with bipolar disorder One hundred and nineteen outpatients and forty healthy controls were included The length of illness number of previous hypomanic and depressive episodes episode density and history of psychosis assessed clinical severity Performances in verbal memory attention and executive functions as well as level of psychosocial functioning were used as outcomes The negative relationship between number of hypomanic episodes and performance in executive functions decreased as a function of higher values of premorbid IQ No other influences of premorbid IQ were found in the association between clinical severity measures and neurocognitive and psychosocial functioning Premorbid IQ might moderate the relationship between the number of hypomanic episodes and executive functioning in bipolar disorder Possible interpretations of this finding are discussed</t>
+  </si>
+  <si>
+    <t>To evaluate the association between hearing loss and nonverbal intelligence in US children The Third National Health and Nutrition Examination Survey NHANES III is a crosssectional survey 19881994 that used complex multistage sampling design to produce nationally representative demographic and examination data A total of 4823 children ages 6 to 16 years completed audiometric evaluation and cognitive testing during NHANES III Hearing loss was defined as lowfrequency puretone average PTA 25 dB 05 1 2 kHz or highfrequency PTA 25 dB 3 4 6 8 kHz and was designated as unilateral or bilateral Nonverbal intelligence was measured using the Wechsler Intelligence Scale for ChildrenRevised block design subtest Low nonverbal intelligence was defined as a standardized score 4 two standard deviations below the standardized mean of 10 Mean nonverbal intelligence scores differed between children with normal hearing 959 and children with bilateral 687 P 02 but not unilateral 912 P 42 hearing loss NonHispanic black raceethnicity and family income 20000 were associated with 392 and 167 times higher odds of low nonverbal intelligence respectively odds ratio OR 392 P 001 OR 167 P 02 Bilateral hearing loss was independently associated with 577 times increased odds of low nonverbal intelligence compared to normal hearing children OR 577 P 02 Unilateral hearing loss was not associated with higher odds of low nonverbal intelligence OR 073 P 40 Bilateral but not unilateral hearing loss is associated with decreased nonverbal intelligence in US children Longitudinal studies are urgently needed to better understand these associations and their potential impact on future opportunities</t>
+  </si>
+  <si>
+    <t>To evaluate the association between adolescent and youngadult hearing loss and nonverbal intelligence in rural Nepal Crosssectional assessment of hearing loss among a population cohort of adolescents and young adults Sarlahi District southern Nepal Seven hundred sixtyfour individuals aged 14 to 23 years Evaluation of hearing loss defined by World Health Organization criteria of puretone average greater than 25 decibels 05 1 2 4 kHz unilaterally and bilaterally Nonverbal intelligence as measured by the Test of Nonverbal Intelligence 3rd Edition standardized score mean 100 standard deviation 15 Nonverbal intelligence scores differed between participants with normal hearing and those with bilateral p 004 but not unilateral p 074 hearing loss Demographic and socioeconomic factors including male sex higher caste literacy education level occupation reported as student and ownership of a bicycle watch and latrine were strongly associated with higher nonverbal intelligence scores all p 0001 Subjects with bilateral hearing loss scored an average of 316 points lower 95 confidence interval 556 to 075 p 001 than subjects with normal hearing after controlling for socioeconomic factors There was no difference in nonverbal intelligence score based on unilateral hearing loss 097 95 confidence interval 167 to 361 p 047 Nonverbal intelligence is adversely affected by bilateral hearing loss even at mild hearing loss levels Socio economic wellbeing appears compromised in individuals with lower nonverbal intelligence test scores</t>
+  </si>
+  <si>
+    <t>Impaired auditory speech perception abilities in deaf children with hearing aids compromised their verbal intelligence enormously The availability of unilateral cochlear implantation CI auditory speech perception and spoken vocabulary enabled them to reach near ageappropriate levels This holds especially for children in spoken language environments However speech perception in complex listening situations and the acquisition of complex verbal skills remains difficult Bilateral CI was expected to enhance the acquisition of verbal intelligence by improved understanding of speech in noise This study examined the effect of bilateral CI on verbal intelligence of 49 deaf children 3580 years Relations between speech perception in noise auditory shortterm memory and verbal intelligence were analysed with multiple linear regressions In addition the interaction of educational setting mainstream or special on these relations was analysed Children with bilateral CI obtained higher scores on verbal intelligence Significant associations were present between speech perception in noise auditory shortterm memory and verbal intelligence Children with simultaneous bilateral CIs showed better speech perception in noise than children with unilateral CIs which mediated by the auditory shortterm memory capacity enhanced the ability to acquire more complex verbal skills for BICI children in mainstream education</t>
+  </si>
+  <si>
+    <t>Longitudinal studies show that lower cognitive performance in adolescence and early adulthood is associated with higher risk of suicide death throughout adulthood However it is unclear whether this cognitive vulnerability originates earlier in childhood since studies conducted in children are scarce and have inconsistent results Vital status of 49853 individuals born between 1959 and 1966 to participants in the Collaborative Perinatal Project cohort was determined by a probabilistic linkage to the National Death Index covering all US deaths occurring from 1979 through 2016 Cox proportional hazard models were used to examine associations of general verbal and nonverbal intelligence at ages 4 and 7 and academic skills at age 7 with suicide death coded according to ICD910 criteria while accounting for sociodemographic and pregnancy factors previously associated with suicide in this sample By the end of 2016 288 cohort members had died by suicide Cognitive performance at 7 years on tests with verbal components was associated with suicide risk average vs high verbal intelligence HR 197 95 CI 105371 low vs high spelling skills HR 202 95 CI 116351 low vs high reading skills HR 201 95 CI 127317 Associations were still evident especially for verbal intelligence and reading skills but hazard ratios were attenuated after adjusting for prenatal and sociodemographic factors at birth verbal intelligence HR 197 95 CI 103378 spelling HR 161 95 CI 090288 reading HR 167 95 CI 102272 Childhood neurocognitive performance is associated with vulnerability to suicide mortality through middleadulthood suggesting that there might be a cognitive diathesis for suicide originating in early childhood Future studies should examine how multiple domains of childhood cognitive performance contribute to vulnerability to suicide risk including by increasing risk for social and environmental factors that are associated not only with suicide but also with many types of psychiatric disorders</t>
+  </si>
+  <si>
+    <t>Cognitive abilityintelligence quotient IQ in youth has previously been associated with subsequent completed and attempted suicide but little is known about the mechanisms underlying the associations This study aims to assess the roles of various risk factors over the life course in explaining the observed relationships The present investigation is a cohort study based on data on IQ test performance and covariates recorded on 49 321 Swedish men conscripted in 19691970 at ages 1820 years Information on suicides and hospital admissions for suicide attempt up to the age of 57 years childhood and adult socioeconomic position and adult family formation was obtained from linkage to national registers Lower IQ was associated with increased risks of both suicide and suicide attempt during the 36 years of followup The associations followed a doseresponse pattern They were attenuated by approximately 45 in models controlling for social background mental illhealth aspects of personality and behavior adult socioeconomic position and family formation Based on oneunit decreases in IQ test performance on a ninepoint scale the hazard ratios between ages 35 and 57 years were for suicide 119 95 confidence interval CI 113125 fully adjusted 110 95 CI 104118 and for suicide attempt 125 95 CI 120131 fully adjusted 114 95 CI 109120 Cognitive ability was found to be associated with subsequent completed and attempted suicide The associations were attenuated by 45 after controlling for risk factors measured over the life course Psychiatric diagnosis maladjustment and aspects of personality in young adulthood and social circumstances in later adulthood contributed in attenuating the associations</t>
+  </si>
+  <si>
+    <t>Poor cognitive abilities and low intellectual quotient IQ are associated with an increased risk of suicide attempts and suicide mortality However knowledge of how this association develops across the lifecourse is limited Our study aims to establish whether individuals who died by suicide by midadulthood are distinguishable by their childtoadolescence cognitive trajectories Participants were from the 1958 British Birth Cohort and were assessed for academic performance at ages 7 11 and 16 and intelligence at 11 years Suicides occurring by September 2012 were identified from linked national death certificates We compared mean mathematics and reading abilities and rate of change across 716 years for individuals who died by suicide v those still alive with and without adjustment for potential earlylife confounding factors Analyses were based on 14 505 participants Fiftyfive participants 48 males had died by suicide by age 54 years While males who died by suicide did not differ from participants still alive in reading scores at age 7 effect size g 004 p 0759 their reading scores had a less steep improvement up to age 16 compared to other participants Adjustments for earlylife confounding factors explained these differences A similar pattern was observed for mathematics scores There was no difference between individuals who died by suicide v participants still alive on intelligence at 11 years While no differences in tests of academic performance and IQ were observed individuals who died by suicide had a less steep improvement in reading abilities over time compared to sameage peers</t>
+  </si>
+  <si>
+    <t>To examine factors which predict parenting stress in a longitudinal cohort of children born very preterm and seen at age 7 years We recruited 100 very preterm 32 weeks gestational age childparent dyads and a control group of 50 termborn dyads born between 2001 and 2004 with followup at 7 years Parents completed the Parenting Stress Index Ways of Coping Questionnaire Child Behavior Check List Beck Depression Inventory and the State Trait Anxiety Inventory questionnaires Child IQ was assessed using the Wechsler Intelligence ScaleIV After controlling for maternal education parents of preterm children 95 CI 1111 to 1214 scored higher p0027 on the Parenting Stress Index than termborn controls 95 CI 978 to 1132 Regression analyses showed that child externalising behaviour sex and parent escapeavoidance coping style predicted higher parenting stress in the preterm group Parents of preterm girls expressed higher levels of stress than those of boys Maladaptive coping strategies contribute to greater stress in parents of very preterm children Our findings suggest that these parents need support for many years after birth of a very preterm infant</t>
+  </si>
+  <si>
+    <t>Parenting influences child development but it is unclear whether early parenting behavior can influence schoolage outcomes in very preterm VPT children andor if certain groups of VPT children may be more affected by early parenting behavior These research questions were examined Participants were 147 children born 30 weeks gestation or birth weight 1250 g and their primary caregiver At term corrected age CA magnetic resonance imaging MRI was used to determine presence and severity of brain abnormality and medical data collected High medical risk was defined as the presence of at least one of sepsis necrotizing enterocolitis bronchopulmonary dysplasia moderate to severe white matter abnormality on MRI or postnatal corticosteroids At 2 years CA parentchild interaction was assessed and at 7 years CA general intelligence IQ language executive function academic skills and socialemotional functioning were assessed Higher levels of parentchild synchrony and parent facilitation sensitivity and positive affect at 2 years were associated with better child outcomes at 7 years while higher levels of intrusiveness and negative affect were associated with poorer outcomes Many of these relationships remained after controlling for early child cognitive development Interactions between child medical risk higherlower and parenting were limited to child reading math and executive functioning outcomes with stronger relationships for lower medical risk children The contribution of early parenting to VPT childrens schoolage performance is significant with stronger effects for lower medical risk children in some outcomes These findings support the premise that parenting strategies should be included in the NICU and early interventions programs for VPT infants</t>
+  </si>
+  <si>
+    <t>The aim of this study was to determine whether specific performancebased executive function assessment tools were associated with executive functioning in everyday life as reported by parents and teachers of four to fiveyearold preterm and term children At the age of 4 years 141 preterm children born 33 weeks gestation and 77 term children were assessed using performancebased intelligence WPPSIIII and executive function EF assessment tools NEPSYII DayNight and Shape School tasks The assessment results were compared with the parent and teacher completed questionnaires of EF BRIEFP when the children started kindergarten at the age of 4 to 5 years The performancebased intelligence and EF assessment results were not consistently associated with the parent and teacher reports of EF in everyday life for either preterm or term groups Clinical implications of using and interpreting performancebased EF assessment tools and EF questionnaires are discussed with a particular focus on young preterm children at the commencement of formal schooling</t>
+  </si>
+  <si>
+    <t>The harmful effects of inbreeding are well known by geneticists and several studies have already reported cases of intellectual disability caused by recessive variants in consanguineous families Nevertheless the effects of inbreeding on the degree of intellectual disability are still poorly investigated Here we present a detailed analysis of the homozygosity regions in a cohort of 612 patients with intellectual disabilities of different degrees We investigated i the runs of homozygosity distribution between syndromic and nonsyndromic ID ii the effect of runs of homozygosity on the ID degree using the intelligence quotient score Our data revealed no significant differences in the first analysis instead we detected significantly larger runs of homozygosity stretches in severe ID compared to nonsevere ID cases P 0007 together with an increase of the percentage of genome covered by runs of homozygosity P 003 In accord with the recent findings regarding autism and other neurological disorders this study reveals the important role of autosomal recessive variants in intellectual disability The amount of homozygosity seems to modulate the degree of cognitive impairment despite the intellectual disability cause</t>
+  </si>
+  <si>
+    <t>Recent studies of the genetic foundations of cognitive ability rely on large samples in extreme hundreds of thousands of individuals from relatively outbred populations of mostly European ancestry Hypothesizing that the genetic foundation of cognitive ability depends on the broader populationspecific genetic context we performed a genomewide association study and homozygosity mapping of cognitive ability estimates obtained through latent variable modeling in a sample of 354 children from a consanguineous population of Saudi Arabia Approximately half of the sample demonstrated significantly elevated homozygosity levels indicative of inbreeding and among those with elevated levels homozygosity was negatively associated with cognitive ability Further homozygosity mapping identified a specific run inclusive of the iGRIA4i gene that survived corrections for multiple testing for association with cognitive ability The results suggest that in a consanguineous population a notable proportion of the variance in cognitive ability in the normal range in children might be regulated by populationspecific mechanisms such as patterns of elevated homozygosity This observation has implications for the fields understanding of the etiological bases of intelligence and its variability around the world</t>
+  </si>
+  <si>
+    <t>The chromosome bands 15q24115q243 contain a complex region with numerous segmental duplications that predispose to regional microduplications and microdeletions both of which have been linked to intellectual disability speech delay and autistic features The region may also harbour common inversion polymorphisms whose functional and phenotypic manifestations are unknown Using single nucleotide polymorphism SNP data we detected four large contiguous haplotypegenotypes at 15q24 with Mendelian inheritance in 2562 trios African origin high population stratification and reduced recombination rates Although the haplotypegenotypes have been most likely generated by decreased or absent recombination among them we could not confirm that they were the product of inversion polymorphisms in the region One of the blocks was composed of three haplotypegenotypes N1a N1b and N2 which significantly correlated with intelligence quotient IQ in 2735 children of European ancestry from three independent population cohorts Homozygosity for N2 was associated with lower verbal IQ 24point loss pvalue 001 while homozygosity for N1b was associated with 32point loss in nonverbal IQ pvalue 00006 The three alleles strongly correlated with expression levels of MAN2C1 and SNUPN in blood and brain Homozygosity for N2 correlated with overexpression of MAN2C1 over many brain areas but the occipital cortex where N1b homozygous highly underexpressed Our populationbased analyses suggest that MAN2C1 may contribute to the verbal difficulties observed in microduplications and to the intellectual disability of microdeletion syndromes whose characteristic dosage increment and removal may affect different brain areas</t>
+  </si>
+  <si>
+    <t>We evaluated the neurodevelopment and growth of five to sevenyearold children who had participated in a randomised trial of early lowdose hydrocortisone treatment to prevent bronchopulmonary dysplasia The 51 infants in the original study had birthweights of 5011250 g and gestational ages of 2330 weeks required mechanical ventilation during the first 24 hours and received hydrocortisone or a placebo for 10 days The majority 80 of the 90 who survived to five to seven years of age participated in this followup study and their growth neuromotor cognitive and speech development were evaluated Some neurodevelopment impairment was observed in 61 of the hydrocortisone group and 39 of the placebo group ranging from minor neurological dysfunction to severe neurological conditions p 0182 The mean fullscale intelligence quotient IQ was 878 153 in the hydrocortisone group and 957 150 in the placebo group p 0135 and the mean performance IQ was 883 145 and 991 140 p 0034 respectively A fifth 22 of the hydrocortisone group required physiotherapy but none of the placebo group did p 0034 The agestandardised growth was comparable between both groups Early hydrocortisone treatment may have undesired effects on neurodevelopment at preschool age and further safety studies are required</t>
+  </si>
+  <si>
+    <t>To assess the 5year neurocognitive outcomes of children born extremely preterm exposed to prophylactic hydrocortisone to improve survival without bronchopulmonary dysplasia This was a prespecified secondary analysis of the PREMILOC clinical trial trial registration EudraCT no 200700204120 NCT00623740 The primary outcome was fullscale IQ based on the Wechsler Preschool and Primary Scale of Intelligence Among 109 surviving children recruited at the Robert Debre Childrens Hospital Paris outcome data were available for 42 out of 56 infants 75 in the group treated with hydrocortisone and 41 out of 53 77 in the placebo group Mean scores were not significantly different between the two groups on fullscale IQ hydrocortisone 919 SD 139 placebo 863 SD 154 mean difference 57 95 confidence interval CI 10 to 123 p 010 however working memory and retention ability were significantly better in the group treated with hydrocortisone In a multivariate logistic regression including potential confounding variables hydrocortisone treatment was significantly associated with a greater chance to survive at 5 years of age with a fullscale IQ equal to or greater than 90 compared to placebo adjusted odds ratio 426 95 CI 1471236 p 0008 This exploratory analysis provides reassuring data regarding the longterm neurodevelopmental safety of prophylactic hydrocortisone in infants born extremely preterm</t>
+  </si>
+  <si>
+    <t>Perinatal exposure to glucocorticoids has been associated with adverse cerebral effects but little is known about their effect on cognitive development and exposure later in childhood This study examined intellectual abilities memory and behavioural problems in children previously treated with glucocorticoids We evaluated 38 children aged from seven to 16 years who had been treated with glucocorticoids for rheumatic disease or nephrotic syndrome together with 42 healthy controls matched for age gender and parental education The median cumulative dose of prednisolone equivalents was 158 mgkg range 21723 and the mean time that had elapsed since treatment was threeandahalf standard deviation 22 years Intellectual abilities were assessed with the Wechsler Intelligence Scale for Children and memory performance and behavioural problems with a pattern recognition memory task and the Child Behaviour Check List There were no significant differences between the groups in pattern recognition memory perceptual organisation index or behavioural problems but patients had a significantly lower verbal comprehension index and this difference was present in both disease groups There were no significant doseresponse relationships regarding verbal intellectual abilities Children and adolescents previously treated with glucocorticoids seemed to have lower intellectual verbal abilities than healthy controls</t>
+  </si>
+  <si>
+    <t>Micronutrient supplementation is often prescribed during pregnancy The effects of prenatal iron and multimicronutrient supplementation on intellectual development in young schoolaged children are less than clear The aim of this study was to examine the longterm effects of prenatal iron plus folic acid or multiple micronutrient including iron and folic acid supplementation vs folic acid supplementation on the intellectual development of young schoolaged children in rural China Young schoolaged children aged 710 y n 1744 of women who had participated in a trial of prenatal supplementation with various combinations of micronutrients and remained residents in 2 rural counties in China were followed We measured their intellectual development by Wechsler Intelligence Scale for Children Fourth Edition WISCIV The WISCIV generated the FullScale Intelligence Quotient FSIQ Verbal Comprehension Index VCI Working Memory Index WMI Perceptual Reasoning Index PRI and Processing Speed Index PSI Multilevel analyses were used to assess the effect of prenatal micronutrient supplementation on the intellectual development of children The mean differences in FSIQ VCI WMI PRI and PSI respectively were not significant between prenatal folic acid supplementation and either iron plus folic acid 034 P 065 006 P 095 022 P 076 001 P 099 and 126 P 011 or multimicronutrient 039 P 060 064 P 048 011 P 087 043 P 059 and 034 P 065 supplementation after adjusting for confounders There is no evidence to suggest a different effect on intellectual development between prenatal iron plus folic acid multimicronutrient supplementation and prenatal folic acid supplementation in children aged 710 y This trial was registered at wwwisrctncom as ISRCTN08850194</t>
+  </si>
+  <si>
+    <t>The association of micronutrient supplementation during pregnancy with the intellectual development of adolescent offspring is unknown To assess the longterm association of antenatal micronutrient supplementation with adolescent intellectual development This 14year followup study of a randomized clinical trial of micronutrient supplementation in pregnancy was conducted in 2 counties in rural western China in 2118 adolescent offspring aged 10 to 14 years of mothers who were randomized to take a daily capsule of either folic acid folic acid plus iron or multiple micronutrients from August 1 2002 through February 28 2006 Followup was conducted from June 1 2016 through December 31 2016 Data analyses took place from April 1 2017 to June 20 2017 Adolescent fullscale intelligence quotient and aspects of verbal comprehension working memory perceptual reasoning and processing speed indexes were assessed by the Wechsler Intelligence Scale for Children Of 2118 adolescent offspring 1252 591 were boys and 866 409 were girls with a mean SD age of 117 087 years representing 472 of the 4488 single live births that were eligible to participate Compared with folic acid supplementation multiple micronutrient supplementation was associated with a 113point higher fullscale intelligence quotient 95 CI 015210 and a 203point higher verbal comprehension index 95 CI 061345 similar results were found in comparison with folic acid plus iron When mothers initiated supplementation early 12 weeks of gestation and had an adequate dose 180 capsules multiple micronutrient capsules were associated with a 216point higher fullscale intelligence quotient 95 CI 041390 and 429point higher verbal comprehension index 95 CI 133724 compared with folic acid capsules The mean test scores were lower in the substratum of supplementation initiated late 12 weeks of gestation and with an inadequate dose 180 capsules The multiple micronutrient group had higher scores than the other 2 treatment groups and significant differences were observed for fullscale intelligence quotient adjusted mean difference 246 95 CI 098394 when compared with the folic acid plus iron group Compared with folic acid plus iron or...</t>
+  </si>
+  <si>
+    <t>Micronutrients are essential for brain development with deficiencies in specific nutrients linked to impaired cognitive function Interventions are shown to be beneficial to childrens mental development particularly in subjects who were micronutrientdeficient at baseline but results on healthy subjects remain inconsistent This systematic review evaluated the effect of micronutrient inventions on different cognitive domains Studies conducted in both developing and developed countries and trials that investigate the effect of both single and multiple micronutrient intervention were reviewed Systematic searches of Medline CINAHL Plus and Academic Search database were undertaken to identify trials published after year 2000 Randomized controlled trials RCTs that evaluate the effect of micronutrients on cognitive performance or academic performance among children aged 418 years were included 19 trials were identified from 18 articles The major cognitive outcomes assessed included fluid intelligence crystallized intelligence shortterm memory longterm memory cognitive processing speed attention and concentration and school performance Eight of ten trials assessing fluid intelligence reported significant positive effects of micronutrient supplementation among micronutrientdeficient children especially those who were irondeficient or iodinedeficient at baseline The effects of micronutrient interventions on other domains were inconsistent Improvement in fluid intelligence among micronutrientdeficient children was consistently reported Further research is needed to provide more definite evidence on the beneficial effects of micronutrient inventions on other cognitive domains and the effects in healthy subjects</t>
+  </si>
+  <si>
+    <t>Maternal stress during pregnancy has been associated with negative outcomes in children We examined the risk factors for symptoms of depression in 11yearold children including the interaction between birthweight and other variables We collected maternal obstetric and demographic information from birth through to the age of 11 Approximately half of the 609 children were born smallforgestationalage SGA Information collected at 35 and 7 years of age included intelligence testing and parentreported behavioural and emotional development At 11 years of age the children completed the Center for Epidemiological Studies Depression Scale for Children Multivariable logistic regression analysis examined the relationship between selfreported symptoms of moderate to severe depression at the age of 11 and explanatory variables Symptoms of moderate to severe depression were related to increasing maternal stress during pregnancy young maternal age lower intelligence test scores at 7yearsold and being bullied at school in the previous 6 months There was also a significant interaction between maternal stress in pregnancy and symptoms of depression in 11yearold children born SGA Increasing maternal stress during pregnancy was associated with increased risk of symptoms of moderate to severe depression in 11yearold children especially those who were born SGA</t>
+  </si>
+  <si>
+    <t>bMaternal depression and child development A prospective analysis of consequences risk and protective factorsb bAbstractb iObjectivei Maternal stress specifically maternal mental health problems are considered risk factors for child development The literature suggests that prenatal depressive symptoms as well as depressive symptoms are a widespread phenomenon during the further development of the child and have repeatedly been shown to have adverse effects on child mental health outcomes The present study examined the longitudinal relationships between maternal depression prenatal postnatal during childhood and adolescence and child mental health from childhood to adolescence Possible risk and protective factors were also considered iMethodi iNi 112 mothers were assessed for depressive symptoms via a questionnaire at four different timepoints prenatal T1 postnatal T2 during childhood T3 during adolescence T4 Childrens externalizing and internalizing symptoms 509 girls were assessed by their mothers both during childhood iMi 768 iSDi 076 years and during adolescence iMi 1323 iSDi 027 years We evaluated the relationships between maternal depressive symptoms and childrens externalizinginternalizing symptoms using multiple regression models and analyzed possible risk and protective factors using moderation analysis iResultsi ExternalizingInternalizing symptoms were not directly associated with maternal depressive symptoms while associations between such symptoms and maladaptive behavior were found in adolescents The socioeconomic status of families showed a different risk profile for prenatal and postnatal depressive symptoms The IQ of the children proved to be a risk factor for internalizing symptoms iConclusionsi Maternal depressive symptoms at any time during child development in combination with further risk factors have an impact on child mental health The early identification of maternal symptoms followed by interventions to differentiate between prenatal and postnatal depression especially in the context of socioeconomic status are highly relevant for child development</t>
+  </si>
+  <si>
+    <t>This study assessed the association between timing and course of maternal depression from pregnancy onwards and childrens cognitive development at ages 5 to 6 Potential interaction effects with child sex and family socioeconomic status were explored One thousand thirtynine motherchild pairs from the French EDEN motherchild birth cohort were followed from 24 to 28 weeks of pregnancy onwards Based on Center for Epidemiological Studies Depression CESD and Edinburgh Postnatal Depression Scale EPDS scores assessed at six timepoints longitudinal maternal depressive symptom trajectories were calculated with a groupbased semiparametric method Childrens cognitive function was assessed at ages 5 to 6 by trained interviewers with the Wechsler Preschool and Primary Scale of Intelligence Third Edition WPPSIIII resulting in three composite scores Verbal IQ VIQ Performance IQ PIQ and FullScale IQ FSIQ Five trajectories of maternal symptoms of depression could be distinguished no symptoms persistent intermediatelevel depressive symptoms persistent high depressive symptoms high symptoms in pregnancy only and high symptoms in the childs preschool period only Multiple linear regression analyses showed that compared to children of mothers who were never depressed children of mothers with persistent high levels of depressive symptoms had reduced VIQ PIQ and FSIQ scores This association was moderated by the childs sex boys appearing especially vulnerable in case of persistent maternal depression Chronicity of maternal depression predicts childrens cognitive development at school entry age particularly in boys As maternal mental health is an early modifiable influence on child development addressing the treatment needs of depressed mothers may help reduce the associated burden on the next generation</t>
+  </si>
+  <si>
+    <t>Studies from the UK have shown that children with Down syndrome acquire more academic skills in regular education Does this likewise hold true for the Dutch situation even after the effect of selective placement has been taken into account In 2006 an extensive questionnaire was sent to 160 parents of specially and regularly placed children with Down syndrome born 19932000 in primary education in the Netherlands with a response rate of 76 Questions were related to the childs school history academic and nonacademic skills intelligence quotient parental educational level the extent to which parents worked on academics with their child at home and the amount of academic instructional time at school Academic skills were predicted with the other variables as independents For the children in regular schools much more time proved to be spent on academics Academic performance appeared to be predicted reasonably well on the basis of age nonacademic skills parental educational level and the extent to which parents worked at home on academics However more variance could be predicted when the total amount of years that the child spent in regular education was added especially regarding reading and to a lesser extent regarding writing and math In addition we could prove that this finding could not be accounted for by endogenity Regularly placed children with Down syndrome learn more academics However this is not a straight consequence of inclusive placement and age alone but is also determined by factors such as cognitive functioning nonacademic skills parental educational level and the extent to which parents worked at home on academics Nevertheless it could be proven that the more advanced academic skills of the regularly placed children are not only due to selective placement The positive effect of regular school on academics appeared to be most pronounced for reading skills</t>
+  </si>
+  <si>
+    <t>In education research and education policy much attention is paid to schools curricula and teachers but little attention is paid to the characteristics of students Differences in general cognitive ability igi are often overlooked as a source of important variance among schools and in outcomes among students within schools Standardized test scores such as the SAT and ACT are reasonably good proxies for igi and are available for most incoming college students Though the idea of igi being important in education is quite old we present contemporary evidence that colleges and universities in the United States vary considerably in the average cognitive ability of their students which correlates strongly with other methods including international methods of ranking colleges We also show that these igi differences are reflected in the extent to which graduates of colleges are represented in various highstatus and highincome occupations Finally we show how including individuallevel measures of cognitive ability can substantially increase the statistical power of experiments designed to measure educational treatment effects We conclude that education policy researchers should give more consideration to the concept of individual differences in cognitive ability as well as other factors</t>
+  </si>
+  <si>
+    <t>the practical exams The same trend was observed for the total sample and when subdivided by sex In the total sample significant differences in theoretical and practical exam grades were noted between chronotypes MT ivsi ET ipi 002 ipi 0006 and MT ivsi NT ipi 04 ipi 003 The differences between the males were significant for the theoretical ipi 006 MT ivsi NT ipi 002 and the practical subjects MT ivsi ET ipi 004 MT ivsi NT ipi 01 but no significant differences were noted between the females Our findings indicate overall better academic achievement by the MT students whereas the NT had lower exam grades for the theoretical subjects and the ET performed worse on the practical exams We speculate that the higher intelligence expressed by the ET students might have helped them compensate the disadvantage on the theoretical but not on practical exams in which the effect of misalignment between circadian preferences and university class schedule was more evident...</t>
+  </si>
+  <si>
+    <t>No prospective cohort study of highrisk children has used rigorous exposure assessment and optimal diagnostic procedures to examine the perinatal antecedents of autism spectrum disorder separately among those with and without cognitive impairment We sought to identify perinatal factors associated with increased risk for autism spectrum disorder with and without intellectual disability intelligence quotient 70 in children born extremely preterm This prospective multicenter 14 institutions in 5 states birth cohort study included children born at 2327 weeks gestation in 2002 through 2004 who were evaluated for autism spectrum disorder and intellectual disability at age 10 years Pregnancy information was obtained from medical records and by structured maternal interview Cervicalvaginal infection refers to maternal report of bacterial infection n 4 bacterial vaginosis n 30 yeast infection n 62 mixed infection n 4 or otherunspecified infection n 43 eg chlamydia trichomonas or herpes We do not know the extent to which infection per se was confirmed by microbial colonization We use the terms fetal growth restriction and small for gestational age interchangeably in light of the ongoing challenge to discern pathologically from constitutionally small newborns Severe fetal growth restriction was defined as a birthweight Zscore for gestational age at delivery 2 ie 2 SD below the median birthweight in a referent sample that excluded pregnancies delivered for preeclampsia or fetal indications Participants were classified into 4 groups based on whether or not they met rigorous diagnostic criteria for autism spectrum disorder and intellectual disability autism spectrum disorderintellectual disability autism spectrum disorderintellectual disability autism spectrum disorderintellectual disability and autism spectrum disorderintellectual disability Temporally ordered multinomial logistic regression models were used to examine the information conveyed by perinatal factors about increased risk for autism spectrum disorder andor intellectual disability autism spectrum disorderintellectual disability autism spectrum disorderintellectual disability and autism spectrum disorderintellectual disability In all 889 of 966 92 children recruited were assessed at age 10 years of whom 857 96 were assessed for autism spectrum disorder of these 840 98 children were assessed for intellectual disability Autism spectrum...</t>
+  </si>
+  <si>
+    <t>Lower gestational age may increase autism spectrum disorder ASD vulnerability however the incidence of ASD diagnosis through a direct assessment on every very preterm birth child on the population base remains unclear Moreover the behavioral characteristics of preterm birth ASD are unknown Every very preterm birth child gestational age 32 weeks birth weight 1500 g who was discharged from neonatal intensive care units in Southern Taiwan and prospectively followed to 5 years of age was evaluated using the Autism Diagnostic Observation Schedule ADOS and the Autism Diagnostic InterviewRevised ADIR The term birth gestational age 37 weeks ASD children characterized by ADOS and ADIR were group matched to the preterm birth ASD by age at examination for comparison ADOS severity scores were calculated by the MannWhitney iUi test and ADIR by multivariate analysis of variance and canonical discriminant analysis Two hundred fortysix 87 of the 283 very preterm survivors were followed prospectively to 5 years of age Nineteen 77 of the 246 children fulfilled the diagnostic criteria of ASD After excluding 1 patient with cerebral palsy and profound mental disability 18 preterm ASD children were compared with 44 term birth ASD children The two ASD groups were comparable for age at examination gender and intelligence quotient The two groups showed comparable ADOS severity scores in social affect deficits restricted repetitive behaviors and total score but had differences in qualitative abnormalities in reciprocal social interaction Wilks lambda iFi value 62 iPi 0001 of ADIR Compared to term birth ASD children preterm birth ASD children exhibited worse nonverbal behaviors that regulate social interaction OR 259 95 CI 141473 iPi 0002 but more favorable peer relationships OR 058 95 CI 038090 iPi 001 and socioemotional reciprocity OR 055 95 CI 033092 iPi 002 In contrast to the heterogeneous severity of social reciprocity in the term ASD group the behavioral characteristics of the preterm ASD group showed a homogeneous reciprocal social interaction pattern The 5year incidence rate of ASD was high in very preterm birth children Preterm birth...</t>
+  </si>
+  <si>
+    <t>disability and autism spectrum disorderintellectual disability Temporally ordered multinomial logistic regression models were used to examine the information conveyed by perinatal factors about increased risk for autism spectrum disorder andor intellectual disability autism spectrum disorderintellectual disability autism spectrum disorderintellectual disability and autism spectrum disorderintellectual disability In all 889 of 966 92 children recruited were assessed at age 10 years of whom 857 96 were assessed for autism spectrum disorder of these 840 98 children were assessed for intellectual disability Autism spectrum disorderintellectual disability was diagnosed in 32 27840 autism spectrum disorderintellectual disability in 38 32840 and autism spectrum disorderintellectual disability in 85 71840 Maternal report of presumed cervicalvaginal infection during pregnancy was associated with increased risk of autism spectrum disorderintellectual disability odds ratio 27 95 confidence interval 1264 The lowest gestational age category 2324 weeks was associated with increased risk of autism spectrum disorderintellectual disability odds ratio 29 95 confidence interval 1366 and autism spectrum disorderintellectual disability odds ratio 44 95 confidence interval 1711 Severe fetal growth restriction was strongly associated with increased risk for autism spectrum disorderintellectual disability odds ratio 99 95 confidence interval 3330 whereas peripartum maternal fever was uniquely associated with increased risk of autism spectrum disorderintellectual disability odds ratio 29 95 confidence interval 1267 Our study confirms that low gestational age is associated with increased risk for autism spectrum disorder irrespective of intellectual ability whereas severe fetal growth restriction is strongly associated with autism spectrum disorder without intellectual disability Maternal report of cervicalvaginal infection is associated with increased risk of autism spectrum disorder with intellectual disability and peripartum maternal fever is associated with increased risk for intellectual disability without autism spectrum disorder...</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -182,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +322,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DDCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -340,11 +479,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,15 +530,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,6 +645,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFAFFFF"/>
+      <color rgb="FFFFFFE0"/>
+      <color rgb="FFC9DDCD"/>
+      <color rgb="FFFFFFF4"/>
+      <color rgb="FFFFFFCF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -693,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53D78E8-53DE-5744-88FC-D2EE8D7F5B8B}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +974,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
@@ -798,7 +1069,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -867,30 +1138,30 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="15" t="s">
@@ -919,7 +1190,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="5">
@@ -935,7 +1206,7 @@
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="9">
         <v>2</v>
       </c>
@@ -949,7 +1220,7 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="9">
         <v>3</v>
       </c>
@@ -963,7 +1234,7 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="9">
         <v>4</v>
       </c>
@@ -977,7 +1248,7 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="9">
         <v>5</v>
       </c>
@@ -991,7 +1262,7 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="9">
         <v>6</v>
       </c>
@@ -1005,7 +1276,7 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="9">
         <v>7</v>
       </c>
@@ -1019,7 +1290,7 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="9">
         <v>8</v>
       </c>
@@ -1033,7 +1304,7 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="9">
         <v>9</v>
       </c>
@@ -1047,7 +1318,7 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="10">
         <v>10</v>
       </c>
@@ -1073,5 +1344,3661 @@
     <mergeCell ref="A25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03816060-24A7-D946-9AB1-F7E07293AE02}">
+  <dimension ref="A1:N249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="65" style="21" customWidth="1"/>
+    <col min="4" max="4" width="65" style="20" customWidth="1"/>
+    <col min="5" max="5" width="65" style="19" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="3" style="23" customWidth="1"/>
+    <col min="12" max="13" width="3" style="24" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C1" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="56"/>
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="32"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" ht="372" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="32"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+    </row>
+    <row r="9" spans="1:14" ht="255" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="32"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="56"/>
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+    </row>
+    <row r="12" spans="1:14" ht="404" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+    </row>
+    <row r="13" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:14" ht="344" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="32"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+    </row>
+    <row r="15" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+    </row>
+    <row r="16" spans="1:14" ht="340" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="32"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="56"/>
+    </row>
+    <row r="18" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="1:14" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="32"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+    </row>
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="1:14" ht="404" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="32"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:14" ht="372" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="32"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="56"/>
+    </row>
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+    </row>
+    <row r="26" spans="1:14" ht="272" x14ac:dyDescent="0.2">
+      <c r="B26" s="32"/>
+      <c r="C26" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+    </row>
+    <row r="28" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+    </row>
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+    </row>
+    <row r="30" spans="1:14" ht="255" x14ac:dyDescent="0.2">
+      <c r="B30" s="32"/>
+      <c r="C30" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="56"/>
+    </row>
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+    </row>
+    <row r="33" spans="1:14" ht="289" x14ac:dyDescent="0.2">
+      <c r="B33" s="32"/>
+      <c r="C33" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+    </row>
+    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+    </row>
+    <row r="35" spans="1:14" ht="306" x14ac:dyDescent="0.2">
+      <c r="B35" s="32"/>
+      <c r="C35" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+    </row>
+    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+    </row>
+    <row r="37" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B37" s="32"/>
+      <c r="C37" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="56"/>
+    </row>
+    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B39" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+    </row>
+    <row r="40" spans="1:14" ht="323" x14ac:dyDescent="0.2">
+      <c r="B40" s="32"/>
+      <c r="C40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+    </row>
+    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B41" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+    </row>
+    <row r="42" spans="1:14" ht="340" x14ac:dyDescent="0.2">
+      <c r="B42" s="32"/>
+      <c r="C42" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+    </row>
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B43" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+    </row>
+    <row r="44" spans="1:14" ht="340" x14ac:dyDescent="0.2">
+      <c r="B44" s="32"/>
+      <c r="C44" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="56"/>
+    </row>
+    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B46" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+    </row>
+    <row r="47" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B47" s="32"/>
+      <c r="C47" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+    </row>
+    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B48" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+    </row>
+    <row r="49" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B49" s="32"/>
+      <c r="C49" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+    </row>
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B50" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+    </row>
+    <row r="51" spans="1:14" ht="404" x14ac:dyDescent="0.2">
+      <c r="B51" s="32"/>
+      <c r="C51" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>8</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="56"/>
+    </row>
+    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+    </row>
+    <row r="54" spans="1:14" ht="340" x14ac:dyDescent="0.2">
+      <c r="B54" s="32"/>
+      <c r="C54" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+    </row>
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+    </row>
+    <row r="56" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B56" s="32"/>
+      <c r="C56" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+    </row>
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+    </row>
+    <row r="58" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B58" s="32"/>
+      <c r="C58" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>9</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="56"/>
+    </row>
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+    </row>
+    <row r="61" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B61" s="32"/>
+      <c r="C61" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+    </row>
+    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B62" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+    </row>
+    <row r="63" spans="1:14" ht="306" x14ac:dyDescent="0.2">
+      <c r="B63" s="32"/>
+      <c r="C63" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+    </row>
+    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B64" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+    </row>
+    <row r="65" spans="1:14" ht="238" x14ac:dyDescent="0.2">
+      <c r="B65" s="32"/>
+      <c r="C65" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>10</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="56"/>
+    </row>
+    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+    </row>
+    <row r="68" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B68" s="32"/>
+      <c r="C68" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+    </row>
+    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B69" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+    </row>
+    <row r="70" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B70" s="32"/>
+      <c r="C70" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+    </row>
+    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B71" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="29"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+    </row>
+    <row r="72" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B72" s="32"/>
+      <c r="C72" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="55"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+    </row>
+    <row r="160" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+    </row>
+    <row r="162" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+    </row>
+    <row r="163" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+    </row>
+    <row r="164" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+    </row>
+    <row r="165" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+    </row>
+    <row r="166" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+    </row>
+    <row r="167" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+    </row>
+    <row r="168" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+    </row>
+    <row r="170" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+    </row>
+    <row r="171" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+    </row>
+    <row r="172" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+    </row>
+    <row r="173" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+    </row>
+    <row r="174" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+    </row>
+    <row r="175" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+    </row>
+    <row r="176" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+    </row>
+    <row r="177" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+    </row>
+    <row r="178" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+    </row>
+    <row r="179" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+    </row>
+    <row r="180" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C180"/>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+    </row>
+    <row r="182" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+    </row>
+    <row r="183" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+    </row>
+    <row r="184" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+    </row>
+    <row r="185" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+    </row>
+    <row r="186" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+    </row>
+    <row r="187" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+    </row>
+    <row r="188" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+    </row>
+    <row r="189" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+    </row>
+    <row r="190" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+    </row>
+    <row r="191" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+    </row>
+    <row r="192" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+    </row>
+    <row r="193" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+    </row>
+    <row r="194" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+    </row>
+    <row r="195" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+    </row>
+    <row r="196" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+    </row>
+    <row r="197" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+    </row>
+    <row r="198" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+    </row>
+    <row r="199" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+    </row>
+    <row r="200" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+    </row>
+    <row r="201" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+    </row>
+    <row r="202" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+    </row>
+    <row r="203" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+    </row>
+    <row r="204" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+    </row>
+    <row r="205" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+    </row>
+    <row r="206" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+    </row>
+    <row r="207" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+    </row>
+    <row r="208" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+    </row>
+    <row r="209" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+    </row>
+    <row r="210" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+    </row>
+    <row r="211" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+    </row>
+    <row r="212" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+    </row>
+    <row r="213" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+    </row>
+    <row r="214" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+    </row>
+    <row r="215" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+    </row>
+    <row r="216" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+    </row>
+    <row r="217" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+    </row>
+    <row r="218" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+    </row>
+    <row r="219" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+    </row>
+    <row r="220" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+    </row>
+    <row r="221" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+    </row>
+    <row r="222" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+    </row>
+    <row r="223" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+    </row>
+    <row r="224" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+    </row>
+    <row r="225" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+    </row>
+    <row r="226" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C226"/>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+    </row>
+    <row r="227" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+    </row>
+    <row r="228" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C228"/>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+    </row>
+    <row r="229" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C229"/>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+    </row>
+    <row r="230" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C230"/>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+    </row>
+    <row r="231" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+    </row>
+    <row r="232" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C232"/>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+    </row>
+    <row r="233" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C233"/>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+    </row>
+    <row r="234" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C234"/>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+    </row>
+    <row r="235" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C235"/>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+    </row>
+    <row r="236" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C236"/>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+    </row>
+    <row r="237" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C237"/>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+    </row>
+    <row r="238" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C238"/>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+    </row>
+    <row r="239" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C239"/>
+      <c r="D239"/>
+      <c r="E239"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+    </row>
+    <row r="240" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C240"/>
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+    </row>
+    <row r="241" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C241"/>
+      <c r="D241"/>
+      <c r="E241"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+    </row>
+    <row r="242" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C242"/>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+    </row>
+    <row r="243" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C243"/>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+    </row>
+    <row r="244" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C244"/>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+    </row>
+    <row r="245" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+    </row>
+    <row r="246" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C246"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+    </row>
+    <row r="247" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+    </row>
+    <row r="248" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+    </row>
+    <row r="249" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C249"/>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="B59:N59"/>
+    <mergeCell ref="B52:N52"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B38:N38"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B17:N17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>